--- a/table/Datas/dialogue.xlsx
+++ b/table/Datas/dialogue.xlsx
@@ -5,13 +5,61 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="第一章·第一幕" sheetId="1" r:id="rId4"/>
+    <sheet name="Export Summary" sheetId="1" r:id="rId4"/>
+    <sheet name="第一章·第一幕" sheetId="2" r:id="rId5"/>
+    <sheet name="第一章 第二幕" sheetId="3" r:id="rId6"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="139">
+  <si>
+    <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
+  </si>
+  <si>
+    <t>Numbers Sheet Name</t>
+  </si>
+  <si>
+    <t>Numbers Table Name</t>
+  </si>
+  <si>
+    <t>Excel Worksheet Name</t>
+  </si>
+  <si>
+    <t>Export Summary</t>
+  </si>
+  <si>
+    <t>Table 1</t>
+  </si>
+  <si>
+    <t>第一章·第一幕</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>第一章·第一幕</t>
+    </r>
+  </si>
+  <si>
+    <t>第一章 第二幕</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>第一章 第二幕</t>
+    </r>
+  </si>
   <si>
     <t>##var</t>
   </si>
@@ -61,121 +109,343 @@
     <t>##</t>
   </si>
   <si>
-    <t>你好</t>
-  </si>
-  <si>
-    <t>主角</t>
+    <t>Hello sir, what can I get for you?</t>
+  </si>
+  <si>
+    <t>Bartender</t>
+  </si>
+  <si>
+    <t>1-2,1-4,1-6</t>
+  </si>
+  <si>
+    <t>Hey, any news lately?</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>1-3,2-1</t>
+  </si>
+  <si>
+    <t>sir, I have no clue what you are talking about.</t>
+  </si>
+  <si>
+    <t>1-7</t>
+  </si>
+  <si>
+    <t>Can I get …</t>
+  </si>
+  <si>
+    <t>Alright, sir.</t>
+  </si>
+  <si>
+    <t>add_item,10011</t>
+  </si>
+  <si>
+    <t>Nothing</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>You heard about Victor? He went missing four days ago.</t>
+  </si>
+  <si>
+    <t>2-2,2-4</t>
+  </si>
+  <si>
+    <t>That name doesn’t ring a bell</t>
+  </si>
+  <si>
+    <t>Huh. Thought it would've made it to your ears by now. Everyone’s been talking about this.</t>
+  </si>
+  <si>
+    <t>3-1</t>
+  </si>
+  <si>
+    <t>Victor… remind me. What’s the story?</t>
+  </si>
+  <si>
+    <t>add_group,3</t>
+  </si>
+  <si>
+    <t>Who would've thought? Loud, nasty guy like that—ran his mouth too much, and now he’s the one no one can find. Pathetic, really.</t>
+  </si>
+  <si>
+    <t>3-2,3-3</t>
+  </si>
+  <si>
+    <t>What was he like, exactly?</t>
+  </si>
+  <si>
+    <t>3-4</t>
+  </si>
+  <si>
+    <t>You know him well?</t>
+  </si>
+  <si>
+    <t>He had a real temper — used to show up here sometimes, acting like he owned the place. We had to chase him down just to get him to pay his tab.</t>
+  </si>
+  <si>
+    <t>One night, he got into it with another regular. Nearly beat the guy half to death.</t>
+  </si>
+  <si>
+    <t>Cops showed up fast. Pretty sure someone ended up in the hospital.</t>
+  </si>
+  <si>
+    <t>3-7,3-8</t>
+  </si>
+  <si>
+    <t>Damn. Sounds like the kind of guy people remember for all the wrong reasons.</t>
+  </si>
+  <si>
+    <t>3-9</t>
+  </si>
+  <si>
+    <t>For real? That’s some wild shit.</t>
+  </si>
+  <si>
+    <t>We almost banned him, but he stopped showing up after the cops came.</t>
+  </si>
+  <si>
+    <t>3-10,3-12</t>
+  </si>
+  <si>
+    <t>Doesn’t sound like the kind of guy who disappears quietly.</t>
+  </si>
+  <si>
+    <t>Not at all. But no one knows why he disappeared. No clues, no warning, nothing that adds up.</t>
+  </si>
+  <si>
+    <t>Guess the bar’s been a little calmer without him, huh?</t>
+  </si>
+  <si>
+    <t>Still... something about the way he vanished doesn’t sit right.</t>
+  </si>
+  <si>
+    <t>Have you heard about the news?</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Huh?</t>
+  </si>
+  <si>
+    <t>Victor went missing just a few days ago.</t>
+  </si>
+  <si>
+    <t>That gangster probably pissed off the wrong person… or just got wasted and passed out in some alley again.</t>
+  </si>
+  <si>
+    <t>Is that so?</t>
+  </si>
+  <si>
+    <t>Yeah, well… can’t say I’m surprised. Too many people couldn’t stand him.</t>
+  </si>
+  <si>
+    <t>4-7,4-9,4-11</t>
+  </si>
+  <si>
+    <t>I would imagine…</t>
+  </si>
+  <si>
+    <t>remove_group,4</t>
+  </si>
+  <si>
+    <t>Funny to hear that.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I don’t give a fuck about that asshole.</t>
+  </si>
+  <si>
+    <t>What’d he do to you?</t>
+  </si>
+  <si>
+    <t>4-13,4-14</t>
+  </si>
+  <si>
+    <t>Let’s not mention it.</t>
+  </si>
+  <si>
+    <t>4-15</t>
+  </si>
+  <si>
+    <t>Long story but don’t really want to talk about it.</t>
+  </si>
+  <si>
+    <t>Up to you. But for what it’s worth... I never liked him either.</t>
+  </si>
+  <si>
+    <t>(..)</t>
+  </si>
+  <si>
+    <t>Hey man, do you happen to have a lighter?</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>5-2,5-3</t>
+  </si>
+  <si>
+    <t>Yea, here.</t>
+  </si>
+  <si>
+    <t>5-5</t>
+  </si>
+  <si>
+    <t>No. Stay away from me!</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>remove_group,5</t>
+  </si>
+  <si>
+    <t>Appreciate it. It’s such a long week.</t>
+  </si>
+  <si>
+    <t>5-6, 5-10</t>
+  </si>
+  <si>
+    <t>What day is it again?</t>
+  </si>
+  <si>
+    <t>Wednesday, but it feels like a Friday. Streets are busier than usual.</t>
+  </si>
+  <si>
+    <t>5-8,5-10</t>
+  </si>
+  <si>
+    <t>People looking for an excuse to feel normal, I guess.</t>
+  </si>
+  <si>
+    <t>Might be something in the air tonight.</t>
+  </si>
+  <si>
+    <t>Same here. Really need a break.</t>
+  </si>
+  <si>
+    <t>Yeah. Just waiting for a vacation that keeps getting pushed. These days, the bar’s the only place that feels like mine.</t>
+  </si>
+  <si>
+    <t>Yeah. Lately, it feels like the city’s holding its breath.</t>
+  </si>
+  <si>
+    <t>You ever get the feeling things aren’t slowing down anytime soon?</t>
+  </si>
+  <si>
+    <t>Like something’s about to snap. People walk faster, talk less.</t>
+  </si>
+  <si>
+    <t>5-16, 5-19</t>
+  </si>
+  <si>
+    <t>You felt it too?.</t>
+  </si>
+  <si>
+    <t>Yea.</t>
+  </si>
+  <si>
+    <t>That’s our world. No complaints.</t>
+  </si>
+  <si>
+    <t>Hey, excuse me — is anyone sitting here?</t>
+  </si>
+  <si>
+    <t>You look fine, but sorry — not my type. Not in the mood for meeting another guy tonight.</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>6-3, 6-8</t>
+  </si>
+  <si>
+    <t>That was not what I asked…</t>
+  </si>
+  <si>
+    <t>Mmh, maybe not — but you were looking at me like you had something else in mind.</t>
+  </si>
+  <si>
+    <t>Can’t blame you though. I get that a lot.</t>
+  </si>
+  <si>
+    <t>And it’s not my fault some people are a little too into themselves.</t>
+  </si>
+  <si>
+    <t>If that’s what you want to believe, go ahead. I’m leaving…</t>
+  </si>
+  <si>
+    <t>remove_group,6</t>
+  </si>
+  <si>
+    <t>Not everything’s about you.</t>
+  </si>
+  <si>
+    <t>Relax. You’re not the first guy to ask me something just to sit closer.</t>
+  </si>
+  <si>
+    <t>But points for confidence, I guess.</t>
+  </si>
+  <si>
+    <t>6-12, 6-14</t>
+  </si>
+  <si>
+    <t>Didn’t realize asking about a chair was a romantic gesture.</t>
+  </si>
+  <si>
+    <t>You can keep the seat. I’ll stand — wouldn’t want to give you the wrong idea.</t>
+  </si>
+  <si>
+    <t>Hey, man — it's late. We're closing up.</t>
+  </si>
+  <si>
+    <t>Oh, damn. Sorry about that — totally lost track of time.</t>
+  </si>
+  <si>
+    <t>No worries. You should head home if you wanna catch any sleep before sunrise.</t>
+  </si>
+  <si>
+    <t>1-4, 1-5</t>
+  </si>
+  <si>
+    <t>Ha, thanks for the reminder.</t>
   </si>
   <si>
     <t>remove_group,1</t>
   </si>
   <si>
-    <t>需要什么？</t>
-  </si>
-  <si>
-    <t>酒保</t>
-  </si>
-  <si>
-    <t>你有什么？</t>
-  </si>
-  <si>
-    <t>有酒</t>
-  </si>
-  <si>
-    <t>1-5,1-9</t>
-  </si>
-  <si>
-    <t>来瓶酒</t>
-  </si>
-  <si>
-    <t>好嘞</t>
-  </si>
-  <si>
-    <t>add_item,10011</t>
-  </si>
-  <si>
-    <t>最近有什么新闻吗？</t>
-  </si>
-  <si>
-    <t>你听说了吗……</t>
-  </si>
-  <si>
-    <t>2-1</t>
-  </si>
-  <si>
-    <t>算了不用了</t>
-  </si>
-  <si>
-    <t>穷逼</t>
-  </si>
-  <si>
-    <t>没有</t>
-  </si>
-  <si>
-    <t>add_group,4</t>
-  </si>
-  <si>
-    <t>愿闻其详</t>
-  </si>
-  <si>
-    <t>Yada yada yada...</t>
-  </si>
-  <si>
-    <t>原来如此</t>
-  </si>
-  <si>
-    <t>可不是吗</t>
-  </si>
-  <si>
-    <t>add_group,3</t>
-  </si>
-  <si>
-    <t>（主角现在有酒，且知道酒保的情报。）</t>
+    <t>Story of my life.</t>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
+    <t>第一次回来</t>
+  </si>
+  <si>
+    <t>Why are you still here, man? We’re already closed.</t>
+  </si>
+  <si>
+    <t>remove_group,2</t>
+  </si>
+  <si>
+    <t>第二次回来</t>
+  </si>
+  <si>
+    <t>You good? We closed up a while ago. Can you head out?</t>
   </si>
   <si>
     <t>remove_group,3</t>
   </si>
   <si>
-    <t>Blah blah blah...</t>
-  </si>
-  <si>
-    <t>（主角现在没有酒，且啥都不知道。）</t>
-  </si>
-  <si>
-    <t>remove_group,4</t>
-  </si>
-  <si>
-    <t>你有酒吗兄弟？</t>
-  </si>
-  <si>
-    <t>醉汉</t>
-  </si>
-  <si>
-    <t>5-2,5-5,5-8</t>
-  </si>
-  <si>
-    <t>有的，给你</t>
-  </si>
-  <si>
-    <t>remove_item,10011</t>
-  </si>
-  <si>
-    <t>太好了，好兄弟</t>
-  </si>
-  <si>
-    <t>没有，抱歉</t>
-  </si>
-  <si>
-    <t>……</t>
-  </si>
-  <si>
-    <t>滚一边去！</t>
-  </si>
-  <si>
-    <t>（害怕地跑掉了）</t>
-  </si>
-  <si>
-    <t>remove_group,5</t>
+    <t>第三次回来</t>
+  </si>
+  <si>
+    <t>Seriously? You planning to sleep here or what?</t>
   </si>
 </sst>
 </file>
@@ -185,16 +455,32 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="12"/>
+      <color indexed="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="15"/>
@@ -207,7 +493,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -220,8 +506,20 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -231,16 +529,118 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="14"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="14"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="14"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
       </bottom>
       <diagonal/>
     </border>
@@ -250,30 +650,117 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -292,7 +779,11 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ff5e88b1"/>
+      <rgbColor rgb="ffeef3f4"/>
+      <rgbColor rgb="ff0000ff"/>
       <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ffa5a5a5"/>
     </indexedColors>
   </colors>
@@ -1355,808 +1846,2260 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H45"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="2" customWidth="1"/>
+    <col min="1" max="1" width="2" style="6" customWidth="1"/>
+    <col min="2" max="4" width="30.5547" customWidth="1"/>
+    <col min="2" max="2" width="30.5" style="6" customWidth="1"/>
+    <col min="3" max="3" width="30.5" style="6" customWidth="1"/>
+    <col min="4" max="4" width="30.5" style="6" customWidth="1"/>
+    <col min="5" max="5" width="10" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="10" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="13.55" customHeight="1">
+      <c r="A1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" ht="13.55" customHeight="1">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12"/>
+    </row>
+    <row r="3" ht="50" customHeight="1">
+      <c r="A3" s="10"/>
+      <c r="B3" t="s" s="13">
+        <v>0</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" ht="13.55" customHeight="1">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" ht="13.55" customHeight="1">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" ht="13.55" customHeight="1">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="10"/>
+      <c r="B7" t="s" s="14">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s" s="14">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s" s="14">
+        <v>3</v>
+      </c>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" ht="13.55" customHeight="1">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="10"/>
+      <c r="B9" t="s" s="15">
+        <v>6</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="10"/>
+      <c r="B10" s="17"/>
+      <c r="C10" t="s" s="18">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s" s="19">
+        <v>7</v>
+      </c>
+      <c r="E10" s="12"/>
+    </row>
+    <row r="11" ht="13" customHeight="1">
+      <c r="A11" s="10"/>
+      <c r="B11" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" ht="13" customHeight="1">
+      <c r="A12" s="20"/>
+      <c r="B12" s="4"/>
+      <c r="C12" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s" s="5">
+        <v>6</v>
+      </c>
+      <c r="E12" s="21"/>
+    </row>
+    <row r="13" ht="13" customHeight="1">
+      <c r="A13" s="7"/>
+      <c r="B13" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" ht="13" customHeight="1">
+      <c r="A14" s="20"/>
+      <c r="B14" s="4"/>
+      <c r="C14" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s" s="5">
+        <v>8</v>
+      </c>
+      <c r="E14" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D10" location="'Export Summary'!R1C1" tooltip="" display="Export Summary"/>
+    <hyperlink ref="D10" location="'第一章·第一幕'!R1C1" tooltip="" display="第一章·第一幕"/>
+    <hyperlink ref="D12" location="'第一章·第一幕'!R1C1" tooltip="" display="第一章·第一幕"/>
+    <hyperlink ref="D14" location="'第一章 第二幕'!R1C1" tooltip="" display="第一章 第二幕"/>
+    <hyperlink ref="D12" location="'第一章·第一幕'!R1C1" tooltip="" display="第一章·第一幕"/>
+    <hyperlink ref="D14" location="'第一章 第二幕'!R1C1" tooltip="" display="第一章 第二幕"/>
+  </hyperlinks>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:H85"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="7.35156" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.67188" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.17188" style="1" customWidth="1"/>
-    <col min="4" max="4" width="36.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.67188" style="1" customWidth="1"/>
-    <col min="6" max="8" width="17.8516" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.35156" style="25" customWidth="1"/>
+    <col min="2" max="2" width="7.67188" style="25" customWidth="1"/>
+    <col min="3" max="3" width="8.17188" style="25" customWidth="1"/>
+    <col min="4" max="4" width="36.5" style="25" customWidth="1"/>
+    <col min="5" max="5" width="8.67188" style="25" customWidth="1"/>
+    <col min="6" max="8" width="17.8516" style="25" customWidth="1"/>
+    <col min="9" max="16384" width="8.85156" style="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.35" customHeight="1">
-      <c r="A1" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="2">
+      <c r="A1" t="s" s="26">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s" s="26">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s" s="26">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s" s="26">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s" s="26">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s" s="26">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s" s="26">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s" s="26">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" ht="16.35" customHeight="1">
+      <c r="A2" t="s" s="26">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s" s="26">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s" s="26">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s" s="26">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s" s="26">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s" s="26">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s" s="26">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s" s="26">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" ht="16.35" customHeight="1">
+      <c r="A3" t="s" s="26">
+        <v>24</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+    </row>
+    <row r="4" ht="16.35" customHeight="1">
+      <c r="A4" t="s" s="26">
+        <v>25</v>
+      </c>
+      <c r="B4" s="27"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+    </row>
+    <row r="5" ht="16.35" customHeight="1">
+      <c r="A5" s="27"/>
+      <c r="B5" s="29">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C5" s="29">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s" s="26">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s" s="26">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s" s="26">
+        <v>28</v>
+      </c>
+      <c r="G5" s="27"/>
+      <c r="H5" s="26"/>
+    </row>
+    <row r="6" ht="16.35" customHeight="1">
+      <c r="A6" s="27"/>
+      <c r="B6" s="29">
+        <v>1</v>
+      </c>
+      <c r="C6" s="29">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D6" t="s" s="30">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s" s="26">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s" s="26">
+        <v>31</v>
+      </c>
+      <c r="G6" s="27"/>
+      <c r="H6" s="31"/>
+    </row>
+    <row r="7" ht="16.35" customHeight="1">
+      <c r="A7" s="27"/>
+      <c r="B7" s="29">
+        <v>1</v>
+      </c>
+      <c r="C7" s="29">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="D7" t="s" s="26">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s" s="26">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s" s="26">
+        <v>33</v>
+      </c>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+    </row>
+    <row r="8" ht="16.35" customHeight="1">
+      <c r="A8" s="27"/>
+      <c r="B8" s="29">
+        <v>1</v>
+      </c>
+      <c r="C8" s="29">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="D8" t="s" s="26">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s" s="26">
+        <v>30</v>
+      </c>
+      <c r="F8" s="26"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+    </row>
+    <row r="9" ht="16.35" customHeight="1">
+      <c r="A9" s="27"/>
+      <c r="B9" s="29">
+        <v>1</v>
+      </c>
+      <c r="C9" s="29">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="D9" t="s" s="30">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s" s="26">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s" s="30">
+        <v>33</v>
+      </c>
+      <c r="G9" s="27"/>
+      <c r="H9" t="s" s="26">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" ht="12.9" customHeight="1">
+      <c r="A10" s="27"/>
+      <c r="B10" s="29">
+        <v>1</v>
+      </c>
+      <c r="C10" s="29">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="D10" t="s" s="26">
+        <v>37</v>
+      </c>
+      <c r="E10" t="s" s="26">
+        <v>30</v>
+      </c>
+      <c r="F10" t="s" s="26">
+        <v>33</v>
+      </c>
+      <c r="G10" s="27"/>
+      <c r="H10" s="26"/>
+    </row>
+    <row r="11" ht="12.9" customHeight="1">
+      <c r="A11" s="27"/>
+      <c r="B11" s="29">
+        <v>1</v>
+      </c>
+      <c r="C11" s="29">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" ht="16.35" customHeight="1">
-      <c r="A2" t="s" s="2">
+      <c r="D11" t="s" s="26">
+        <v>38</v>
+      </c>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+    </row>
+    <row r="12" ht="12.9" customHeight="1">
+      <c r="A12" s="27"/>
+      <c r="B12" s="29">
+        <v>2</v>
+      </c>
+      <c r="C12" s="29">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s" s="26">
+        <v>39</v>
+      </c>
+      <c r="E12" t="s" s="26">
+        <v>27</v>
+      </c>
+      <c r="F12" t="s" s="26">
+        <v>40</v>
+      </c>
+      <c r="G12" s="29">
+        <v>10011</v>
+      </c>
+      <c r="H12" s="27"/>
+    </row>
+    <row r="13" ht="12.9" customHeight="1">
+      <c r="A13" s="27"/>
+      <c r="B13" s="29">
+        <v>2</v>
+      </c>
+      <c r="C13" s="29">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s" s="26">
+        <v>41</v>
+      </c>
+      <c r="E13" t="s" s="26">
+        <v>30</v>
+      </c>
+      <c r="F13" s="26"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+    </row>
+    <row r="14" ht="12.9" customHeight="1">
+      <c r="A14" s="27"/>
+      <c r="B14" s="29">
+        <v>2</v>
+      </c>
+      <c r="C14" s="29">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s" s="26">
+        <v>42</v>
+      </c>
+      <c r="E14" t="s" s="26">
+        <v>27</v>
+      </c>
+      <c r="F14" t="s" s="26">
+        <v>43</v>
+      </c>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+    </row>
+    <row r="15" ht="12.9" customHeight="1">
+      <c r="A15" s="27"/>
+      <c r="B15" s="29">
+        <v>2</v>
+      </c>
+      <c r="C15" s="29">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s" s="26">
+        <v>44</v>
+      </c>
+      <c r="E15" t="s" s="30">
+        <v>30</v>
+      </c>
+      <c r="F15" t="s" s="26">
+        <v>43</v>
+      </c>
+      <c r="G15" s="27"/>
+      <c r="H15" t="s" s="26">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" ht="12.9" customHeight="1">
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="31"/>
+    </row>
+    <row r="17" ht="12.9" customHeight="1">
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+    </row>
+    <row r="18" ht="12.9" customHeight="1">
+      <c r="A18" s="27"/>
+      <c r="B18" s="29">
+        <v>3</v>
+      </c>
+      <c r="C18" s="29">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s" s="26">
+        <v>46</v>
+      </c>
+      <c r="E18" t="s" s="26">
+        <v>27</v>
+      </c>
+      <c r="F18" t="s" s="26">
+        <v>47</v>
+      </c>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+    </row>
+    <row r="19" ht="12.9" customHeight="1">
+      <c r="A19" s="27"/>
+      <c r="B19" s="29">
+        <v>3</v>
+      </c>
+      <c r="C19" s="29">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s" s="26">
+        <v>48</v>
+      </c>
+      <c r="E19" t="s" s="26">
+        <v>30</v>
+      </c>
+      <c r="F19" t="s" s="26">
+        <v>49</v>
+      </c>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+    </row>
+    <row r="20" ht="12.9" customHeight="1">
+      <c r="A20" s="27"/>
+      <c r="B20" s="29">
+        <v>3</v>
+      </c>
+      <c r="C20" s="29">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s" s="26">
+        <v>50</v>
+      </c>
+      <c r="E20" t="s" s="26">
+        <v>30</v>
+      </c>
+      <c r="F20" s="26"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+    </row>
+    <row r="21" ht="12.9" customHeight="1">
+      <c r="A21" s="27"/>
+      <c r="B21" s="29">
+        <v>3</v>
+      </c>
+      <c r="C21" s="29">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s" s="26">
+        <v>51</v>
+      </c>
+      <c r="E21" t="s" s="26">
+        <v>27</v>
+      </c>
+      <c r="F21" s="26"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+    </row>
+    <row r="22" ht="12.9" customHeight="1">
+      <c r="A22" s="27"/>
+      <c r="B22" s="29">
+        <v>3</v>
+      </c>
+      <c r="C22" s="29">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s" s="26">
+        <v>52</v>
+      </c>
+      <c r="E22" t="s" s="26">
+        <v>27</v>
+      </c>
+      <c r="F22" s="26"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="26"/>
+    </row>
+    <row r="23" ht="12.9" customHeight="1">
+      <c r="A23" s="27"/>
+      <c r="B23" s="33">
+        <v>3</v>
+      </c>
+      <c r="C23" s="33">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s" s="30">
+        <v>53</v>
+      </c>
+      <c r="E23" t="s" s="30">
+        <v>27</v>
+      </c>
+      <c r="F23" t="s" s="26">
+        <v>54</v>
+      </c>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+    </row>
+    <row r="24" ht="12.9" customHeight="1">
+      <c r="A24" s="27"/>
+      <c r="B24" s="29">
+        <v>3</v>
+      </c>
+      <c r="C24" s="29">
+        <v>7</v>
+      </c>
+      <c r="D24" t="s" s="26">
+        <v>55</v>
+      </c>
+      <c r="E24" t="s" s="26">
+        <v>30</v>
+      </c>
+      <c r="F24" t="s" s="26">
+        <v>56</v>
+      </c>
+      <c r="G24" s="27"/>
+      <c r="H24" s="26"/>
+    </row>
+    <row r="25" ht="12.9" customHeight="1">
+      <c r="A25" s="27"/>
+      <c r="B25" s="29">
+        <v>3</v>
+      </c>
+      <c r="C25" s="29">
         <v>8</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="D25" t="s" s="26">
+        <v>57</v>
+      </c>
+      <c r="E25" t="s" s="26">
+        <v>30</v>
+      </c>
+      <c r="F25" s="26"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+    </row>
+    <row r="26" ht="12.9" customHeight="1">
+      <c r="A26" s="27"/>
+      <c r="B26" s="29">
+        <v>3</v>
+      </c>
+      <c r="C26" s="29">
         <v>9</v>
       </c>
-      <c r="C2" t="s" s="2">
+      <c r="D26" t="s" s="26">
+        <v>58</v>
+      </c>
+      <c r="E26" t="s" s="26">
+        <v>27</v>
+      </c>
+      <c r="F26" t="s" s="26">
+        <v>59</v>
+      </c>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+    </row>
+    <row r="27" ht="12.9" customHeight="1">
+      <c r="A27" s="27"/>
+      <c r="B27" s="29">
+        <v>3</v>
+      </c>
+      <c r="C27" s="29">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s" s="26">
+        <v>60</v>
+      </c>
+      <c r="E27" t="s" s="26">
+        <v>30</v>
+      </c>
+      <c r="F27" s="26"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+    </row>
+    <row r="28" ht="12.9" customHeight="1">
+      <c r="A28" s="27"/>
+      <c r="B28" s="29">
+        <v>3</v>
+      </c>
+      <c r="C28" s="29">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s" s="26">
+        <v>61</v>
+      </c>
+      <c r="E28" t="s" s="26">
+        <v>27</v>
+      </c>
+      <c r="F28" s="26"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+    </row>
+    <row r="29" ht="12.9" customHeight="1">
+      <c r="A29" s="27"/>
+      <c r="B29" s="33">
+        <v>3</v>
+      </c>
+      <c r="C29" s="33">
+        <v>12</v>
+      </c>
+      <c r="D29" t="s" s="30">
+        <v>62</v>
+      </c>
+      <c r="E29" s="32"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+    </row>
+    <row r="30" ht="12.9" customHeight="1">
+      <c r="A30" s="27"/>
+      <c r="B30" s="29">
+        <v>3</v>
+      </c>
+      <c r="C30" s="29">
+        <v>13</v>
+      </c>
+      <c r="D30" t="s" s="26">
+        <v>63</v>
+      </c>
+      <c r="E30" t="s" s="26">
+        <v>27</v>
+      </c>
+      <c r="F30" s="26"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="26"/>
+    </row>
+    <row r="31" ht="12.9" customHeight="1">
+      <c r="A31" s="27"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+    </row>
+    <row r="32" ht="12.9" customHeight="1">
+      <c r="A32" s="27"/>
+      <c r="B32" s="29">
+        <v>4</v>
+      </c>
+      <c r="C32" s="29">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s" s="26">
+        <v>64</v>
+      </c>
+      <c r="E32" t="s" s="26">
+        <v>65</v>
+      </c>
+      <c r="F32" s="26"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+    </row>
+    <row r="33" ht="12.9" customHeight="1">
+      <c r="A33" s="27"/>
+      <c r="B33" s="29">
+        <v>4</v>
+      </c>
+      <c r="C33" s="29">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s" s="26">
+        <v>66</v>
+      </c>
+      <c r="E33" t="s" s="26">
+        <v>30</v>
+      </c>
+      <c r="F33" s="26"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+    </row>
+    <row r="34" ht="12.9" customHeight="1">
+      <c r="A34" s="27"/>
+      <c r="B34" s="29">
+        <v>4</v>
+      </c>
+      <c r="C34" s="29">
+        <v>3</v>
+      </c>
+      <c r="D34" t="s" s="26">
+        <v>67</v>
+      </c>
+      <c r="E34" t="s" s="26">
+        <v>65</v>
+      </c>
+      <c r="F34" s="26"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+    </row>
+    <row r="35" ht="12.9" customHeight="1">
+      <c r="A35" s="27"/>
+      <c r="B35" s="29">
+        <v>4</v>
+      </c>
+      <c r="C35" s="29">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s" s="26">
+        <v>68</v>
+      </c>
+      <c r="E35" t="s" s="26">
+        <v>65</v>
+      </c>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+    </row>
+    <row r="36" ht="12.9" customHeight="1">
+      <c r="A36" s="27"/>
+      <c r="B36" s="29">
+        <v>4</v>
+      </c>
+      <c r="C36" s="29">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s" s="26">
+        <v>69</v>
+      </c>
+      <c r="E36" t="s" s="26">
+        <v>30</v>
+      </c>
+      <c r="F36" s="26"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+    </row>
+    <row r="37" ht="12.9" customHeight="1">
+      <c r="A37" s="27"/>
+      <c r="B37" s="29">
+        <v>4</v>
+      </c>
+      <c r="C37" s="29">
+        <v>6</v>
+      </c>
+      <c r="D37" t="s" s="26">
+        <v>70</v>
+      </c>
+      <c r="E37" t="s" s="26">
+        <v>65</v>
+      </c>
+      <c r="F37" t="s" s="26">
+        <v>71</v>
+      </c>
+      <c r="G37" s="27"/>
+      <c r="H37" s="26"/>
+    </row>
+    <row r="38" ht="12.9" customHeight="1">
+      <c r="A38" s="27"/>
+      <c r="B38" s="29">
+        <v>4</v>
+      </c>
+      <c r="C38" s="29">
+        <v>7</v>
+      </c>
+      <c r="D38" t="s" s="26">
+        <v>72</v>
+      </c>
+      <c r="E38" t="s" s="26">
+        <v>30</v>
+      </c>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" t="s" s="26">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" ht="12.9" customHeight="1">
+      <c r="A39" s="27"/>
+      <c r="B39" s="29">
+        <v>4</v>
+      </c>
+      <c r="C39" s="29">
         <v>9</v>
       </c>
-      <c r="D2" t="s" s="2">
+      <c r="D39" t="s" s="26">
+        <v>74</v>
+      </c>
+      <c r="E39" t="s" s="26">
+        <v>30</v>
+      </c>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" t="s" s="26">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" ht="12.9" customHeight="1">
+      <c r="A40" s="27"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+    </row>
+    <row r="41" ht="12.9" customHeight="1">
+      <c r="A41" s="27"/>
+      <c r="B41" s="29">
+        <v>4</v>
+      </c>
+      <c r="C41" s="29">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s" s="26">
+        <v>75</v>
+      </c>
+      <c r="E41" t="s" s="26">
+        <v>30</v>
+      </c>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+    </row>
+    <row r="42" ht="12.9" customHeight="1">
+      <c r="A42" s="27"/>
+      <c r="B42" s="29">
+        <v>4</v>
+      </c>
+      <c r="C42" s="29">
+        <v>12</v>
+      </c>
+      <c r="D42" t="s" s="26">
+        <v>76</v>
+      </c>
+      <c r="E42" t="s" s="26">
+        <v>65</v>
+      </c>
+      <c r="F42" t="s" s="26">
+        <v>77</v>
+      </c>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+    </row>
+    <row r="43" ht="12.9" customHeight="1">
+      <c r="A43" s="27"/>
+      <c r="B43" s="29">
+        <v>4</v>
+      </c>
+      <c r="C43" s="29">
+        <v>13</v>
+      </c>
+      <c r="D43" t="s" s="26">
+        <v>78</v>
+      </c>
+      <c r="E43" t="s" s="26">
+        <v>30</v>
+      </c>
+      <c r="F43" t="s" s="34">
+        <v>79</v>
+      </c>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+    </row>
+    <row r="44" ht="12.9" customHeight="1">
+      <c r="A44" s="27"/>
+      <c r="B44" s="29">
+        <v>4</v>
+      </c>
+      <c r="C44" s="29">
+        <v>14</v>
+      </c>
+      <c r="D44" t="s" s="26">
+        <v>80</v>
+      </c>
+      <c r="E44" t="s" s="26">
+        <v>30</v>
+      </c>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="31"/>
+    </row>
+    <row r="45" ht="12.9" customHeight="1">
+      <c r="A45" s="27"/>
+      <c r="B45" s="29">
+        <v>4</v>
+      </c>
+      <c r="C45" s="29">
+        <v>15</v>
+      </c>
+      <c r="D45" t="s" s="26">
+        <v>81</v>
+      </c>
+      <c r="E45" t="s" s="26">
+        <v>65</v>
+      </c>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+    </row>
+    <row r="46" ht="12.9" customHeight="1">
+      <c r="A46" s="27"/>
+      <c r="B46" s="29">
+        <v>4</v>
+      </c>
+      <c r="C46" s="29">
+        <v>16</v>
+      </c>
+      <c r="D46" t="s" s="26">
+        <v>82</v>
+      </c>
+      <c r="E46" t="s" s="26">
+        <v>30</v>
+      </c>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" t="s" s="26">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" ht="12.9" customHeight="1">
+      <c r="A47" s="27"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
+    </row>
+    <row r="48" ht="12.9" customHeight="1">
+      <c r="A48" s="27"/>
+      <c r="B48" s="29">
+        <v>5</v>
+      </c>
+      <c r="C48" s="29">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s" s="26">
+        <v>83</v>
+      </c>
+      <c r="E48" t="s" s="26">
+        <v>84</v>
+      </c>
+      <c r="F48" t="s" s="26">
+        <v>85</v>
+      </c>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
+    </row>
+    <row r="49" ht="12.9" customHeight="1">
+      <c r="A49" s="27"/>
+      <c r="B49" s="29">
+        <v>5</v>
+      </c>
+      <c r="C49" s="29">
+        <v>2</v>
+      </c>
+      <c r="D49" t="s" s="26">
+        <v>86</v>
+      </c>
+      <c r="E49" t="s" s="26">
+        <v>30</v>
+      </c>
+      <c r="F49" t="s" s="34">
+        <v>87</v>
+      </c>
+      <c r="G49" s="27"/>
+      <c r="H49" s="26"/>
+    </row>
+    <row r="50" ht="12.9" customHeight="1">
+      <c r="A50" s="27"/>
+      <c r="B50" s="29">
+        <v>5</v>
+      </c>
+      <c r="C50" s="29">
         <v>3</v>
       </c>
-      <c r="E2" t="s" s="2">
+      <c r="D50" t="s" s="26">
+        <v>88</v>
+      </c>
+      <c r="E50" t="s" s="26">
+        <v>30</v>
+      </c>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
+    </row>
+    <row r="51" ht="12.9" customHeight="1">
+      <c r="A51" s="27"/>
+      <c r="B51" s="29">
+        <v>5</v>
+      </c>
+      <c r="C51" s="29">
+        <v>4</v>
+      </c>
+      <c r="D51" t="s" s="26">
+        <v>89</v>
+      </c>
+      <c r="E51" t="s" s="26">
+        <v>84</v>
+      </c>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+      <c r="H51" t="s" s="26">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" ht="12.9" customHeight="1">
+      <c r="A52" s="27"/>
+      <c r="B52" s="27"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
+    </row>
+    <row r="53" ht="12.9" customHeight="1">
+      <c r="A53" s="27"/>
+      <c r="B53" s="29">
+        <v>5</v>
+      </c>
+      <c r="C53" s="29">
+        <v>5</v>
+      </c>
+      <c r="D53" t="s" s="26">
+        <v>91</v>
+      </c>
+      <c r="E53" t="s" s="26">
+        <v>84</v>
+      </c>
+      <c r="F53" t="s" s="26">
+        <v>92</v>
+      </c>
+      <c r="G53" s="27"/>
+      <c r="H53" s="27"/>
+    </row>
+    <row r="54" ht="12.9" customHeight="1">
+      <c r="A54" s="27"/>
+      <c r="B54" s="29">
+        <v>5</v>
+      </c>
+      <c r="C54" s="29">
+        <v>6</v>
+      </c>
+      <c r="D54" t="s" s="26">
+        <v>93</v>
+      </c>
+      <c r="E54" t="s" s="26">
+        <v>30</v>
+      </c>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="27"/>
+    </row>
+    <row r="55" ht="12.9" customHeight="1">
+      <c r="A55" s="27"/>
+      <c r="B55" s="29">
+        <v>5</v>
+      </c>
+      <c r="C55" s="29">
+        <v>7</v>
+      </c>
+      <c r="D55" t="s" s="26">
+        <v>94</v>
+      </c>
+      <c r="E55" t="s" s="26">
+        <v>84</v>
+      </c>
+      <c r="F55" t="s" s="26">
+        <v>95</v>
+      </c>
+      <c r="G55" s="27"/>
+      <c r="H55" s="27"/>
+    </row>
+    <row r="56" ht="12.9" customHeight="1">
+      <c r="A56" s="27"/>
+      <c r="B56" s="29">
+        <v>5</v>
+      </c>
+      <c r="C56" s="29">
+        <v>8</v>
+      </c>
+      <c r="D56" t="s" s="26">
+        <v>96</v>
+      </c>
+      <c r="E56" t="s" s="26">
+        <v>30</v>
+      </c>
+      <c r="F56" s="27"/>
+      <c r="G56" s="27"/>
+      <c r="H56" t="s" s="26">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" ht="12.9" customHeight="1">
+      <c r="A57" s="27"/>
+      <c r="B57" s="29">
+        <v>5</v>
+      </c>
+      <c r="C57" s="29">
         <v>10</v>
       </c>
-      <c r="F2" t="s" s="2">
+      <c r="D57" t="s" s="26">
+        <v>97</v>
+      </c>
+      <c r="E57" t="s" s="26">
+        <v>30</v>
+      </c>
+      <c r="F57" s="27"/>
+      <c r="G57" s="27"/>
+      <c r="H57" t="s" s="26">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" ht="12.9" customHeight="1">
+      <c r="A58" s="27"/>
+      <c r="B58" s="27"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="27"/>
+    </row>
+    <row r="59" ht="12.9" customHeight="1">
+      <c r="A59" s="27"/>
+      <c r="B59" s="29">
+        <v>5</v>
+      </c>
+      <c r="C59" s="29">
         <v>11</v>
       </c>
-      <c r="G2" t="s" s="2">
+      <c r="D59" t="s" s="26">
+        <v>98</v>
+      </c>
+      <c r="E59" t="s" s="26">
+        <v>30</v>
+      </c>
+      <c r="F59" s="27"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="27"/>
+    </row>
+    <row r="60" ht="12.9" customHeight="1">
+      <c r="A60" s="27"/>
+      <c r="B60" s="29">
+        <v>5</v>
+      </c>
+      <c r="C60" s="29">
         <v>12</v>
       </c>
-      <c r="H2" t="s" s="2">
+      <c r="D60" t="s" s="26">
+        <v>99</v>
+      </c>
+      <c r="E60" t="s" s="26">
+        <v>84</v>
+      </c>
+      <c r="F60" s="27"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="27"/>
+    </row>
+    <row r="61" ht="12.9" customHeight="1">
+      <c r="A61" s="27"/>
+      <c r="B61" s="29">
+        <v>5</v>
+      </c>
+      <c r="C61" s="29">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" ht="16.35" customHeight="1">
-      <c r="A3" t="s" s="2">
+      <c r="D61" t="s" s="26">
+        <v>100</v>
+      </c>
+      <c r="E61" t="s" s="26">
+        <v>30</v>
+      </c>
+      <c r="F61" s="27"/>
+      <c r="G61" s="27"/>
+      <c r="H61" s="27"/>
+    </row>
+    <row r="62" ht="12.9" customHeight="1">
+      <c r="A62" s="27"/>
+      <c r="B62" s="29">
+        <v>5</v>
+      </c>
+      <c r="C62" s="29">
         <v>14</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" ht="16.35" customHeight="1">
-      <c r="A4" t="s" s="2">
+      <c r="D62" t="s" s="26">
+        <v>101</v>
+      </c>
+      <c r="E62" t="s" s="26">
+        <v>30</v>
+      </c>
+      <c r="F62" s="27"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="27"/>
+    </row>
+    <row r="63" ht="12.9" customHeight="1">
+      <c r="A63" s="27"/>
+      <c r="B63" s="29">
+        <v>5</v>
+      </c>
+      <c r="C63" s="29">
         <v>15</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" ht="16.35" customHeight="1">
-      <c r="A5" s="3"/>
-      <c r="B5" s="5">
+      <c r="D63" t="s" s="26">
+        <v>102</v>
+      </c>
+      <c r="E63" t="s" s="26">
+        <v>84</v>
+      </c>
+      <c r="F63" t="s" s="26">
+        <v>103</v>
+      </c>
+      <c r="G63" s="27"/>
+      <c r="H63" s="27"/>
+    </row>
+    <row r="64" ht="12.9" customHeight="1">
+      <c r="A64" s="27"/>
+      <c r="B64" s="29">
+        <v>5</v>
+      </c>
+      <c r="C64" s="29">
+        <v>16</v>
+      </c>
+      <c r="D64" t="s" s="26">
+        <v>104</v>
+      </c>
+      <c r="E64" t="s" s="26">
+        <v>30</v>
+      </c>
+      <c r="F64" s="27"/>
+      <c r="G64" s="27"/>
+      <c r="H64" t="s" s="26">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" ht="12.9" customHeight="1">
+      <c r="A65" s="27"/>
+      <c r="B65" s="29">
+        <v>5</v>
+      </c>
+      <c r="C65" s="29">
+        <v>17</v>
+      </c>
+      <c r="D65" t="s" s="26">
+        <v>105</v>
+      </c>
+      <c r="E65" t="s" s="26">
+        <v>84</v>
+      </c>
+      <c r="F65" s="27"/>
+      <c r="G65" s="27"/>
+      <c r="H65" s="27"/>
+    </row>
+    <row r="66" ht="12.9" customHeight="1">
+      <c r="A66" s="27"/>
+      <c r="B66" s="29">
+        <v>5</v>
+      </c>
+      <c r="C66" s="29">
+        <v>19</v>
+      </c>
+      <c r="D66" t="s" s="26">
+        <v>106</v>
+      </c>
+      <c r="E66" t="s" s="26">
+        <v>30</v>
+      </c>
+      <c r="F66" s="27"/>
+      <c r="G66" s="27"/>
+      <c r="H66" t="s" s="26">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="67" ht="12.9" customHeight="1">
+      <c r="A67" s="27"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="27"/>
+      <c r="D67" s="26"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="27"/>
+      <c r="G67" s="27"/>
+      <c r="H67" s="27"/>
+    </row>
+    <row r="68" ht="12.9" customHeight="1">
+      <c r="A68" s="27"/>
+      <c r="B68" s="29">
+        <v>6</v>
+      </c>
+      <c r="C68" s="29">
         <v>1</v>
       </c>
-      <c r="C5" s="5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="3"/>
-      <c r="H5" t="s" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" ht="16.35" customHeight="1">
-      <c r="A6" s="3"/>
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5">
+      <c r="D68" t="s" s="26">
+        <v>107</v>
+      </c>
+      <c r="E68" t="s" s="26">
+        <v>30</v>
+      </c>
+      <c r="F68" s="27"/>
+      <c r="G68" s="27"/>
+      <c r="H68" s="27"/>
+    </row>
+    <row r="69" ht="12.9" customHeight="1">
+      <c r="A69" s="27"/>
+      <c r="B69" s="29">
+        <v>6</v>
+      </c>
+      <c r="C69" s="29">
         <v>2</v>
       </c>
-      <c r="D6" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" ht="16.35" customHeight="1">
-      <c r="A7" s="3"/>
-      <c r="B7" s="5">
-        <v>1</v>
-      </c>
-      <c r="C7" s="5">
+      <c r="D69" t="s" s="26">
+        <v>108</v>
+      </c>
+      <c r="E69" t="s" s="26">
+        <v>109</v>
+      </c>
+      <c r="F69" t="s" s="26">
+        <v>110</v>
+      </c>
+      <c r="G69" s="27"/>
+      <c r="H69" s="27"/>
+    </row>
+    <row r="70" ht="12.9" customHeight="1">
+      <c r="A70" s="27"/>
+      <c r="B70" s="29">
+        <v>6</v>
+      </c>
+      <c r="C70" s="29">
         <v>3</v>
       </c>
-      <c r="D7" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" ht="16.35" customHeight="1">
-      <c r="A8" s="3"/>
-      <c r="B8" s="5">
-        <v>1</v>
-      </c>
-      <c r="C8" s="5">
+      <c r="D70" t="s" s="26">
+        <v>111</v>
+      </c>
+      <c r="E70" t="s" s="26">
+        <v>30</v>
+      </c>
+      <c r="F70" s="27"/>
+      <c r="G70" s="27"/>
+      <c r="H70" s="27"/>
+    </row>
+    <row r="71" ht="12.9" customHeight="1">
+      <c r="A71" s="27"/>
+      <c r="B71" s="29">
+        <v>6</v>
+      </c>
+      <c r="C71" s="29">
         <v>4</v>
       </c>
-      <c r="D8" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="E8" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="F8" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" ht="16.35" customHeight="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="5">
-        <v>1</v>
-      </c>
-      <c r="C9" s="5">
+      <c r="D71" t="s" s="26">
+        <v>112</v>
+      </c>
+      <c r="E71" t="s" s="26">
+        <v>109</v>
+      </c>
+      <c r="F71" s="27"/>
+      <c r="G71" s="27"/>
+      <c r="H71" s="27"/>
+    </row>
+    <row r="72" ht="12.9" customHeight="1">
+      <c r="A72" s="27"/>
+      <c r="B72" s="29">
+        <v>6</v>
+      </c>
+      <c r="C72" s="29">
         <v>5</v>
       </c>
-      <c r="D9" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="E9" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" ht="12.9" customHeight="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="5">
-        <v>1</v>
-      </c>
-      <c r="C10" s="5">
+      <c r="D72" t="s" s="26">
+        <v>113</v>
+      </c>
+      <c r="E72" t="s" s="26">
+        <v>109</v>
+      </c>
+      <c r="F72" s="27"/>
+      <c r="G72" s="27"/>
+      <c r="H72" s="27"/>
+    </row>
+    <row r="73" ht="12.9" customHeight="1">
+      <c r="A73" s="27"/>
+      <c r="B73" s="29">
         <v>6</v>
       </c>
-      <c r="D10" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="E10" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="3"/>
-      <c r="H10" t="s" s="2">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" ht="12.9" customHeight="1">
-      <c r="A11" s="3"/>
-      <c r="B11" s="5">
-        <v>1</v>
-      </c>
-      <c r="C11" s="5">
+      <c r="C73" s="29">
+        <v>6</v>
+      </c>
+      <c r="D73" t="s" s="26">
+        <v>114</v>
+      </c>
+      <c r="E73" t="s" s="26">
+        <v>30</v>
+      </c>
+      <c r="F73" s="27"/>
+      <c r="G73" s="27"/>
+      <c r="H73" s="27"/>
+    </row>
+    <row r="74" ht="12.9" customHeight="1">
+      <c r="A74" s="27"/>
+      <c r="B74" s="29">
+        <v>6</v>
+      </c>
+      <c r="C74" s="29">
         <v>7</v>
       </c>
-      <c r="D11" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="E11" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" ht="12.9" customHeight="1">
-      <c r="A12" s="3"/>
-      <c r="B12" s="5">
-        <v>1</v>
-      </c>
-      <c r="C12" s="5">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="E12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="F12" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" ht="12.9" customHeight="1">
-      <c r="A13" s="3"/>
-      <c r="B13" s="5">
-        <v>1</v>
-      </c>
-      <c r="C13" s="5">
+      <c r="D74" t="s" s="26">
+        <v>115</v>
+      </c>
+      <c r="E74" t="s" s="26">
+        <v>30</v>
+      </c>
+      <c r="F74" s="27"/>
+      <c r="G74" s="27"/>
+      <c r="H74" t="s" s="26">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="75" ht="12.9" customHeight="1">
+      <c r="A75" s="27"/>
+      <c r="B75" s="27"/>
+      <c r="C75" s="27"/>
+      <c r="D75" s="32"/>
+      <c r="E75" s="26"/>
+      <c r="F75" s="27"/>
+      <c r="G75" s="27"/>
+      <c r="H75" s="27"/>
+    </row>
+    <row r="76" ht="12.9" customHeight="1">
+      <c r="A76" s="27"/>
+      <c r="B76" s="29">
+        <v>6</v>
+      </c>
+      <c r="C76" s="29">
         <v>9</v>
       </c>
-      <c r="D13" t="s" s="2">
+      <c r="D76" t="s" s="26">
+        <v>117</v>
+      </c>
+      <c r="E76" t="s" s="26">
         <v>30</v>
       </c>
-      <c r="E13" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" ht="12.9" customHeight="1">
-      <c r="A14" s="3"/>
-      <c r="B14" s="5">
-        <v>1</v>
-      </c>
-      <c r="C14" s="5">
+      <c r="F76" s="27"/>
+      <c r="G76" s="27"/>
+      <c r="H76" s="27"/>
+    </row>
+    <row r="77" ht="12.9" customHeight="1">
+      <c r="A77" s="27"/>
+      <c r="B77" s="29">
+        <v>6</v>
+      </c>
+      <c r="C77" s="29">
         <v>10</v>
       </c>
-      <c r="D14" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="E14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" ht="12.9" customHeight="1">
-      <c r="A15" s="3"/>
-      <c r="B15" s="5">
-        <v>1</v>
-      </c>
-      <c r="C15" s="5">
+      <c r="D77" t="s" s="26">
+        <v>118</v>
+      </c>
+      <c r="E77" t="s" s="26">
+        <v>109</v>
+      </c>
+      <c r="F77" s="27"/>
+      <c r="G77" s="27"/>
+      <c r="H77" s="27"/>
+    </row>
+    <row r="78" ht="12.9" customHeight="1">
+      <c r="A78" s="27"/>
+      <c r="B78" s="29">
+        <v>6</v>
+      </c>
+      <c r="C78" s="29">
         <v>11</v>
       </c>
-      <c r="D15" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="E15" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" ht="12.9" customHeight="1">
-      <c r="A16" s="3"/>
-      <c r="B16" s="5">
-        <v>1</v>
-      </c>
-      <c r="C16" s="5">
+      <c r="D78" t="s" s="26">
+        <v>119</v>
+      </c>
+      <c r="E78" t="s" s="26">
+        <v>109</v>
+      </c>
+      <c r="F78" t="s" s="26">
+        <v>120</v>
+      </c>
+      <c r="G78" s="27"/>
+      <c r="H78" s="27"/>
+    </row>
+    <row r="79" ht="12.9" customHeight="1">
+      <c r="A79" s="27"/>
+      <c r="B79" s="29">
+        <v>6</v>
+      </c>
+      <c r="C79" s="29">
         <v>12</v>
       </c>
-      <c r="D16" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="E16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="3"/>
-      <c r="H16" t="s" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" ht="12.9" customHeight="1">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" ht="12.9" customHeight="1">
-      <c r="A18" s="3"/>
-      <c r="B18" s="5">
-        <v>2</v>
-      </c>
-      <c r="C18" s="5">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="E18" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" ht="12.9" customHeight="1">
-      <c r="A19" s="3"/>
-      <c r="B19" s="5">
-        <v>2</v>
-      </c>
-      <c r="C19" s="5">
-        <v>2</v>
-      </c>
-      <c r="D19" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="E19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" ht="12.9" customHeight="1">
-      <c r="A20" s="3"/>
-      <c r="B20" s="5">
-        <v>2</v>
-      </c>
-      <c r="C20" s="5">
-        <v>3</v>
-      </c>
-      <c r="D20" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="E20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="21" ht="12.9" customHeight="1">
-      <c r="A21" s="3"/>
-      <c r="B21" s="5">
-        <v>2</v>
-      </c>
-      <c r="C21" s="5">
-        <v>4</v>
-      </c>
-      <c r="D21" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="E21" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" ht="12.9" customHeight="1">
-      <c r="A22" s="3"/>
-      <c r="B22" s="5">
-        <v>2</v>
-      </c>
-      <c r="C22" s="5">
-        <v>5</v>
-      </c>
-      <c r="D22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="E22" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="3"/>
-      <c r="H22" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" ht="12.9" customHeight="1">
-      <c r="A23" s="3"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" ht="12.9" customHeight="1">
-      <c r="A24" s="3"/>
-      <c r="B24" s="5">
-        <v>3</v>
-      </c>
-      <c r="C24" s="5">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="E24" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="3"/>
-      <c r="H24" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" ht="12.9" customHeight="1">
-      <c r="A25" s="3"/>
-      <c r="B25" s="5">
-        <v>3</v>
-      </c>
-      <c r="C25" s="5">
-        <v>2</v>
-      </c>
-      <c r="D25" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="E25" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-    </row>
-    <row r="26" ht="12.9" customHeight="1">
-      <c r="A26" s="3"/>
-      <c r="B26" s="5">
-        <v>3</v>
-      </c>
-      <c r="C26" s="5">
-        <v>3</v>
-      </c>
-      <c r="D26" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="E26" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-    </row>
-    <row r="27" ht="12.9" customHeight="1">
-      <c r="A27" s="3"/>
-      <c r="B27" s="5">
-        <v>3</v>
-      </c>
-      <c r="C27" s="5">
-        <v>4</v>
-      </c>
-      <c r="D27" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="E27" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-    </row>
-    <row r="28" ht="12.9" customHeight="1">
-      <c r="A28" s="3"/>
-      <c r="B28" s="5">
-        <v>3</v>
-      </c>
-      <c r="C28" s="5">
-        <v>5</v>
-      </c>
-      <c r="D28" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="E28" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-    </row>
-    <row r="29" ht="12.9" customHeight="1">
-      <c r="A29" s="3"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-    </row>
-    <row r="30" ht="12.9" customHeight="1">
-      <c r="A30" s="3"/>
-      <c r="B30" s="5">
-        <v>4</v>
-      </c>
-      <c r="C30" s="5">
-        <v>1</v>
-      </c>
-      <c r="D30" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="E30" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="3"/>
-      <c r="H30" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" ht="12.9" customHeight="1">
-      <c r="A31" s="3"/>
-      <c r="B31" s="5">
-        <v>4</v>
-      </c>
-      <c r="C31" s="5">
-        <v>2</v>
-      </c>
-      <c r="D31" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="E31" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-    </row>
-    <row r="32" ht="12.9" customHeight="1">
-      <c r="A32" s="3"/>
-      <c r="B32" s="5">
-        <v>4</v>
-      </c>
-      <c r="C32" s="5">
-        <v>3</v>
-      </c>
-      <c r="D32" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="E32" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-    </row>
-    <row r="33" ht="12.9" customHeight="1">
-      <c r="A33" s="3"/>
-      <c r="B33" s="5">
-        <v>4</v>
-      </c>
-      <c r="C33" s="5">
-        <v>4</v>
-      </c>
-      <c r="D33" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="E33" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-    </row>
-    <row r="34" ht="12.9" customHeight="1">
-      <c r="A34" s="3"/>
-      <c r="B34" s="5">
-        <v>4</v>
-      </c>
-      <c r="C34" s="5">
-        <v>5</v>
-      </c>
-      <c r="D34" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="E34" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="F34" s="2"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-    </row>
-    <row r="35" ht="12.9" customHeight="1">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-    </row>
-    <row r="36" ht="12.9" customHeight="1">
-      <c r="A36" s="3"/>
-      <c r="B36" s="5">
-        <v>5</v>
-      </c>
-      <c r="C36" s="5">
-        <v>1</v>
-      </c>
-      <c r="D36" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="E36" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="F36" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-    </row>
-    <row r="37" ht="12.9" customHeight="1">
-      <c r="A37" s="3"/>
-      <c r="B37" s="5">
-        <v>5</v>
-      </c>
-      <c r="C37" s="5">
-        <v>2</v>
-      </c>
-      <c r="D37" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="E37" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="F37" s="3"/>
-      <c r="G37" s="5">
-        <v>10011</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" ht="12.9" customHeight="1">
-      <c r="A38" s="3"/>
-      <c r="B38" s="5">
-        <v>5</v>
-      </c>
-      <c r="C38" s="5">
-        <v>3</v>
-      </c>
-      <c r="D38" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="E38" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="2"/>
-    </row>
-    <row r="39" ht="12.9" customHeight="1">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-    </row>
-    <row r="40" ht="12.9" customHeight="1">
-      <c r="A40" s="3"/>
-      <c r="B40" s="5">
-        <v>5</v>
-      </c>
-      <c r="C40" s="5">
-        <v>5</v>
-      </c>
-      <c r="D40" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="E40" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-    </row>
-    <row r="41" ht="12.9" customHeight="1">
-      <c r="A41" s="3"/>
-      <c r="B41" s="5">
-        <v>5</v>
-      </c>
-      <c r="C41" s="5">
+      <c r="D79" t="s" s="26">
+        <v>121</v>
+      </c>
+      <c r="E79" t="s" s="26">
+        <v>30</v>
+      </c>
+      <c r="F79" s="27"/>
+      <c r="G79" s="27"/>
+      <c r="H79" t="s" s="26">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="80" ht="12.9" customHeight="1">
+      <c r="A80" s="27"/>
+      <c r="B80" s="29">
         <v>6</v>
       </c>
-      <c r="D41" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="E41" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-    </row>
-    <row r="42" ht="12.9" customHeight="1">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-    </row>
-    <row r="43" ht="12.9" customHeight="1">
-      <c r="A43" s="3"/>
-      <c r="B43" s="5">
-        <v>5</v>
-      </c>
-      <c r="C43" s="5">
-        <v>8</v>
-      </c>
-      <c r="D43" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="E43" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-    </row>
-    <row r="44" ht="12.9" customHeight="1">
-      <c r="A44" s="3"/>
-      <c r="B44" s="5">
-        <v>5</v>
-      </c>
-      <c r="C44" s="5">
-        <v>9</v>
-      </c>
-      <c r="D44" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="E44" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" t="s" s="2">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="45" ht="12.9" customHeight="1">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
+      <c r="C80" s="29">
+        <v>14</v>
+      </c>
+      <c r="D80" t="s" s="26">
+        <v>122</v>
+      </c>
+      <c r="E80" t="s" s="26">
+        <v>30</v>
+      </c>
+      <c r="F80" s="27"/>
+      <c r="G80" s="27"/>
+      <c r="H80" t="s" s="26">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="81" ht="12.9" customHeight="1">
+      <c r="A81" s="27"/>
+      <c r="B81" s="27"/>
+      <c r="C81" s="27"/>
+      <c r="D81" s="26"/>
+      <c r="E81" s="26"/>
+      <c r="F81" s="27"/>
+      <c r="G81" s="27"/>
+      <c r="H81" s="27"/>
+    </row>
+    <row r="82" ht="12.9" customHeight="1">
+      <c r="A82" s="27"/>
+      <c r="B82" s="27"/>
+      <c r="C82" s="27"/>
+      <c r="D82" s="26"/>
+      <c r="E82" s="26"/>
+      <c r="F82" s="27"/>
+      <c r="G82" s="27"/>
+      <c r="H82" s="27"/>
+    </row>
+    <row r="83" ht="12.9" customHeight="1">
+      <c r="A83" s="27"/>
+      <c r="B83" s="27"/>
+      <c r="C83" s="27"/>
+      <c r="D83" s="26"/>
+      <c r="E83" s="26"/>
+      <c r="F83" s="27"/>
+      <c r="G83" s="27"/>
+      <c r="H83" s="27"/>
+    </row>
+    <row r="84" ht="12.9" customHeight="1">
+      <c r="A84" s="27"/>
+      <c r="B84" s="27"/>
+      <c r="C84" s="27"/>
+      <c r="D84" s="26"/>
+      <c r="E84" s="26"/>
+      <c r="F84" s="27"/>
+      <c r="G84" s="27"/>
+      <c r="H84" s="27"/>
+    </row>
+    <row r="85" ht="12.9" customHeight="1">
+      <c r="A85" s="27"/>
+      <c r="B85" s="27"/>
+      <c r="C85" s="27"/>
+      <c r="D85" s="26"/>
+      <c r="E85" s="26"/>
+      <c r="F85" s="27"/>
+      <c r="G85" s="27"/>
+      <c r="H85" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;11&amp;K000000&amp;P</oddFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:H43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="7.35156" style="35" customWidth="1"/>
+    <col min="2" max="2" width="7.67188" style="35" customWidth="1"/>
+    <col min="3" max="3" width="8.17188" style="35" customWidth="1"/>
+    <col min="4" max="4" width="36.5" style="35" customWidth="1"/>
+    <col min="5" max="5" width="8.67188" style="35" customWidth="1"/>
+    <col min="6" max="8" width="17.8516" style="35" customWidth="1"/>
+    <col min="9" max="16384" width="8.85156" style="35" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16.35" customHeight="1">
+      <c r="A1" t="s" s="26">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s" s="26">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s" s="26">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s" s="26">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s" s="26">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s" s="26">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s" s="26">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s" s="26">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" ht="16.35" customHeight="1">
+      <c r="A2" t="s" s="26">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s" s="26">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s" s="26">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s" s="26">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s" s="26">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s" s="26">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s" s="26">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s" s="26">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" ht="16.35" customHeight="1">
+      <c r="A3" t="s" s="26">
+        <v>24</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+    </row>
+    <row r="4" ht="16.35" customHeight="1">
+      <c r="A4" t="s" s="26">
+        <v>25</v>
+      </c>
+      <c r="B4" s="27"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+    </row>
+    <row r="5" ht="16.35" customHeight="1">
+      <c r="A5" s="27"/>
+      <c r="B5" s="29">
+        <v>7</v>
+      </c>
+      <c r="C5" s="29">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s" s="26">
+        <v>123</v>
+      </c>
+      <c r="E5" t="s" s="26">
+        <v>27</v>
+      </c>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="26"/>
+    </row>
+    <row r="6" ht="16.35" customHeight="1">
+      <c r="A6" s="27"/>
+      <c r="B6" s="29">
+        <v>7</v>
+      </c>
+      <c r="C6" s="29">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s" s="30">
+        <v>124</v>
+      </c>
+      <c r="E6" t="s" s="26">
+        <v>30</v>
+      </c>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="31"/>
+    </row>
+    <row r="7" ht="16.35" customHeight="1">
+      <c r="A7" s="27"/>
+      <c r="B7" s="29">
+        <v>7</v>
+      </c>
+      <c r="C7" s="29">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s" s="26">
+        <v>125</v>
+      </c>
+      <c r="E7" t="s" s="26">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s" s="26">
+        <v>126</v>
+      </c>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+    </row>
+    <row r="8" ht="16.35" customHeight="1">
+      <c r="A8" s="27"/>
+      <c r="B8" s="29">
+        <v>7</v>
+      </c>
+      <c r="C8" s="29">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s" s="26">
+        <v>127</v>
+      </c>
+      <c r="E8" t="s" s="26">
+        <v>30</v>
+      </c>
+      <c r="F8" s="26"/>
+      <c r="G8" s="27"/>
+      <c r="H8" t="s" s="26">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" ht="16.35" customHeight="1">
+      <c r="A9" s="27"/>
+      <c r="B9" s="29">
+        <v>7</v>
+      </c>
+      <c r="C9" s="29">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s" s="30">
+        <v>129</v>
+      </c>
+      <c r="E9" t="s" s="26">
+        <v>30</v>
+      </c>
+      <c r="F9" s="30"/>
+      <c r="G9" s="27"/>
+      <c r="H9" t="s" s="26">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" ht="12.9" customHeight="1">
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="26"/>
+    </row>
+    <row r="11" ht="12.9" customHeight="1">
+      <c r="A11" s="27"/>
+      <c r="B11" t="s" s="26">
+        <v>130</v>
+      </c>
+      <c r="C11" s="27"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+    </row>
+    <row r="12" ht="12.9" customHeight="1">
+      <c r="A12" t="s" s="26">
+        <v>131</v>
+      </c>
+      <c r="B12" s="29">
+        <v>8</v>
+      </c>
+      <c r="C12" s="29">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s" s="26">
+        <v>132</v>
+      </c>
+      <c r="E12" t="s" s="26">
+        <v>27</v>
+      </c>
+      <c r="F12" s="26"/>
+      <c r="G12" s="27"/>
+      <c r="H12" t="s" s="26">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" ht="12.9" customHeight="1">
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+    </row>
+    <row r="14" ht="12.9" customHeight="1">
+      <c r="A14" t="s" s="26">
+        <v>134</v>
+      </c>
+      <c r="B14" s="29">
+        <v>9</v>
+      </c>
+      <c r="C14" s="29">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s" s="26">
+        <v>135</v>
+      </c>
+      <c r="E14" t="s" s="26">
+        <v>27</v>
+      </c>
+      <c r="F14" s="26"/>
+      <c r="G14" s="27"/>
+      <c r="H14" t="s" s="26">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" ht="12.9" customHeight="1">
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="26"/>
+    </row>
+    <row r="16" ht="12.9" customHeight="1">
+      <c r="A16" t="s" s="26">
+        <v>137</v>
+      </c>
+      <c r="B16" s="29">
+        <v>10</v>
+      </c>
+      <c r="C16" s="29">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s" s="30">
+        <v>138</v>
+      </c>
+      <c r="E16" t="s" s="26">
+        <v>27</v>
+      </c>
+      <c r="F16" s="26"/>
+      <c r="G16" s="27"/>
+      <c r="H16" t="s" s="26">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" ht="12.9" customHeight="1">
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="26"/>
+    </row>
+    <row r="18" ht="12.9" customHeight="1">
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+    </row>
+    <row r="19" ht="12.9" customHeight="1">
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+    </row>
+    <row r="20" ht="12.9" customHeight="1">
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+    </row>
+    <row r="21" ht="12.9" customHeight="1">
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+    </row>
+    <row r="22" ht="12.9" customHeight="1">
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="26"/>
+    </row>
+    <row r="23" ht="12.9" customHeight="1">
+      <c r="A23" s="27"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+    </row>
+    <row r="24" ht="12.9" customHeight="1">
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="26"/>
+    </row>
+    <row r="25" ht="12.9" customHeight="1">
+      <c r="A25" s="27"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+    </row>
+    <row r="26" ht="12.9" customHeight="1">
+      <c r="A26" s="27"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+    </row>
+    <row r="27" ht="12.9" customHeight="1">
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+    </row>
+    <row r="28" ht="12.9" customHeight="1">
+      <c r="A28" s="27"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+    </row>
+    <row r="29" ht="12.9" customHeight="1">
+      <c r="A29" s="27"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+    </row>
+    <row r="30" ht="12.9" customHeight="1">
+      <c r="A30" s="27"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="26"/>
+    </row>
+    <row r="31" ht="12.9" customHeight="1">
+      <c r="A31" s="27"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+    </row>
+    <row r="32" ht="12.9" customHeight="1">
+      <c r="A32" s="27"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+    </row>
+    <row r="33" ht="12.9" customHeight="1">
+      <c r="A33" s="27"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+    </row>
+    <row r="34" ht="12.9" customHeight="1">
+      <c r="A34" s="27"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+    </row>
+    <row r="35" ht="12.9" customHeight="1">
+      <c r="A35" s="27"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+    </row>
+    <row r="36" ht="12.9" customHeight="1">
+      <c r="A36" s="27"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+    </row>
+    <row r="37" ht="12.9" customHeight="1">
+      <c r="A37" s="27"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="26"/>
+    </row>
+    <row r="38" ht="12.9" customHeight="1">
+      <c r="A38" s="27"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="26"/>
+    </row>
+    <row r="39" ht="12.9" customHeight="1">
+      <c r="A39" s="27"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="26"/>
+    </row>
+    <row r="40" ht="12.9" customHeight="1">
+      <c r="A40" s="27"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+    </row>
+    <row r="41" ht="12.9" customHeight="1">
+      <c r="A41" s="27"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+    </row>
+    <row r="42" ht="12.9" customHeight="1">
+      <c r="A42" s="27"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+    </row>
+    <row r="43" ht="12.9" customHeight="1">
+      <c r="A43" s="27"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/table/Datas/dialogue.xlsx
+++ b/table/Datas/dialogue.xlsx
@@ -307,7 +307,7 @@
     <t>Appreciate it. It’s such a long week.</t>
   </si>
   <si>
-    <t>5-6, 5-10</t>
+    <t>5-7, 5-11</t>
   </si>
   <si>
     <t>What day is it again?</t>
@@ -316,7 +316,7 @@
     <t>Wednesday, but it feels like a Friday. Streets are busier than usual.</t>
   </si>
   <si>
-    <t>5-8,5-10</t>
+    <t>5-9,5-11</t>
   </si>
   <si>
     <t>People looking for an excuse to feel normal, I guess.</t>
@@ -340,7 +340,7 @@
     <t>Like something’s about to snap. People walk faster, talk less.</t>
   </si>
   <si>
-    <t>5-16, 5-19</t>
+    <t>5-17, 5-20</t>
   </si>
   <si>
     <t>You felt it too?.</t>
@@ -2971,7 +2971,7 @@
         <v>5</v>
       </c>
       <c r="C53" s="29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D53" t="s" s="26">
         <v>91</v>
@@ -2991,7 +2991,7 @@
         <v>5</v>
       </c>
       <c r="C54" s="29">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D54" t="s" s="26">
         <v>93</v>
@@ -3009,7 +3009,7 @@
         <v>5</v>
       </c>
       <c r="C55" s="29">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D55" t="s" s="26">
         <v>94</v>
@@ -3029,7 +3029,7 @@
         <v>5</v>
       </c>
       <c r="C56" s="29">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s" s="26">
         <v>96</v>
@@ -3049,7 +3049,7 @@
         <v>5</v>
       </c>
       <c r="C57" s="29">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D57" t="s" s="26">
         <v>97</v>
@@ -3079,7 +3079,7 @@
         <v>5</v>
       </c>
       <c r="C59" s="29">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D59" t="s" s="26">
         <v>98</v>
@@ -3097,7 +3097,7 @@
         <v>5</v>
       </c>
       <c r="C60" s="29">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D60" t="s" s="26">
         <v>99</v>
@@ -3115,7 +3115,7 @@
         <v>5</v>
       </c>
       <c r="C61" s="29">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D61" t="s" s="26">
         <v>100</v>
@@ -3133,7 +3133,7 @@
         <v>5</v>
       </c>
       <c r="C62" s="29">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D62" t="s" s="26">
         <v>101</v>
@@ -3151,7 +3151,7 @@
         <v>5</v>
       </c>
       <c r="C63" s="29">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D63" t="s" s="26">
         <v>102</v>
@@ -3171,7 +3171,7 @@
         <v>5</v>
       </c>
       <c r="C64" s="29">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D64" t="s" s="26">
         <v>104</v>
@@ -3191,7 +3191,7 @@
         <v>5</v>
       </c>
       <c r="C65" s="29">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D65" t="s" s="26">
         <v>105</v>
@@ -3209,7 +3209,7 @@
         <v>5</v>
       </c>
       <c r="C66" s="29">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D66" t="s" s="26">
         <v>106</v>
